--- a/UK_CoP_TitleLists/BMJ_Hybrid_scifreeimport.xlsx
+++ b/UK_CoP_TitleLists/BMJ_Hybrid_scifreeimport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/lc2792_bath_ac_uk/Documents/Documents/SciFree/TA journal lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4b02a2393526de/Documents/CoP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="8_{90B6508E-8FE9-4A02-82D4-4FE5C279DB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DD807BD-684B-4AC9-9DDD-9DDE2826325B}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="8_{90B6508E-8FE9-4A02-82D4-4FE5C279DB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03AA367C-CCD0-47C4-A8DB-699A632211E6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal List" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="211">
   <si>
     <t>Journal Title</t>
   </si>
@@ -659,9 +659,6 @@
   </si>
   <si>
     <t>Publisher/ Imprint</t>
-  </si>
-  <si>
-    <t>previously published under Journal of Innovation in Health Informatics (2015) and Informatics in Primary Care(1995)</t>
   </si>
   <si>
     <t>BMJ Immunology</t>
@@ -923,92 +920,483 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1632,404 +2020,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2050,50 +2040,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E20557D-7D01-4DDD-A3E5-4BE8969774E1}" name="Table1" displayName="Table1" ref="A1:H53" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
-  <autoFilter ref="A1:H53" xr:uid="{4E20557D-7D01-4DDD-A3E5-4BE8969774E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E20557D-7D01-4DDD-A3E5-4BE8969774E1}" name="Table1" displayName="Table1" ref="A1:H38" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H38" xr:uid="{4E20557D-7D01-4DDD-A3E5-4BE8969774E1}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{60C9D913-7610-4E89-96C3-79D540E13C81}" name="Journal Title" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{157A6765-6BEB-45C8-B059-14466701E200}" name="Imprint" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{C2D0AE15-8EB6-42FA-9756-6359A70C39F2}" name="Print ISSN" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{C1A14781-2EC2-4655-8B99-34C639B681F7}" name="Electronic ISSN" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{6A1CDB50-05D6-4137-BED6-66AEA762C1D8}" name="Journal URL" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{142F869A-41EF-4110-B212-DCDFE3A91B4D}" name="Publishing Model" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{883DC121-F62A-4717-ABC9-50C24089DAAE}" name="License Options" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{79ADE6AD-15D5-4E9E-ADB0-716C42F18B23}" name="Subject Areas" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{60C9D913-7610-4E89-96C3-79D540E13C81}" name="Journal Title" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{157A6765-6BEB-45C8-B059-14466701E200}" name="Imprint" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C2D0AE15-8EB6-42FA-9756-6359A70C39F2}" name="Print ISSN" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C1A14781-2EC2-4655-8B99-34C639B681F7}" name="Electronic ISSN" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{6A1CDB50-05D6-4137-BED6-66AEA762C1D8}" name="Journal URL" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{142F869A-41EF-4110-B212-DCDFE3A91B4D}" name="Publishing Model" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{883DC121-F62A-4717-ABC9-50C24089DAAE}" name="License Options" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{79ADE6AD-15D5-4E9E-ADB0-716C42F18B23}" name="Subject Areas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50DE42A8-741C-4C2A-82B7-4C9C79D7B512}" name="Table14" displayName="Table14" ref="A4:J19" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50DE42A8-741C-4C2A-82B7-4C9C79D7B512}" name="Table14" displayName="Table14" ref="A4:J19" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <autoFilter ref="A4:J19" xr:uid="{50DE42A8-741C-4C2A-82B7-4C9C79D7B512}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1B9A1423-FE7E-41D7-B053-6BF091F459D2}" name="Journal Title" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B625EB42-AF86-4F71-BC2F-65D99997CD50}" name="Imprint" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{559DDF72-C949-47E4-8DA4-297063A6725C}" name="Print ISSN" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{2C5C0518-FAE9-4E34-9C5C-031EDE4262BA}" name="Electronic ISSN" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{D5474278-5905-4A79-9DFE-DE4AB9980E12}" name="Journal URL" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{3D861C40-F9D7-4168-ACD1-389CE9995730}" name="Publishing Model" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{156C7878-43A4-40BA-84D1-0BD24E590EEE}" name="License Options" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{4C684C0B-6FA6-4E1F-BC47-B228FA209770}" name="Subject Areas" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{96CDE76D-4B76-48A4-98FB-70E2CCC4CFC8}" name="Change Type (See Terms)" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{43B192BA-2299-4882-A245-9C663CF7CF9B}" name="Change Note" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{1B9A1423-FE7E-41D7-B053-6BF091F459D2}" name="Journal Title" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{B625EB42-AF86-4F71-BC2F-65D99997CD50}" name="Imprint" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{559DDF72-C949-47E4-8DA4-297063A6725C}" name="Print ISSN" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{2C5C0518-FAE9-4E34-9C5C-031EDE4262BA}" name="Electronic ISSN" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{D5474278-5905-4A79-9DFE-DE4AB9980E12}" name="Journal URL" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{3D861C40-F9D7-4168-ACD1-389CE9995730}" name="Publishing Model" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{156C7878-43A4-40BA-84D1-0BD24E590EEE}" name="License Options" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{4C684C0B-6FA6-4E1F-BC47-B228FA209770}" name="Subject Areas" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{96CDE76D-4B76-48A4-98FB-70E2CCC4CFC8}" name="Change Type (See Terms)" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{43B192BA-2299-4882-A245-9C663CF7CF9B}" name="Change Note" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{98A0D124-AED4-4DBE-8354-EE3315983F60}" name="Table25" displayName="Table25" ref="A1:B11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{98A0D124-AED4-4DBE-8354-EE3315983F60}" name="Table25" displayName="Table25" ref="A1:B11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:B11" xr:uid="{98A0D124-AED4-4DBE-8354-EE3315983F60}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
     <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E088FFDE-8F3A-4B84-9B24-F82FF70FAEA5}" name="Term" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{3BB7484B-180C-438A-8248-E8FEA43CCABB}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E088FFDE-8F3A-4B84-9B24-F82FF70FAEA5}" name="Term" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{3BB7484B-180C-438A-8248-E8FEA43CCABB}" name="Description" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2416,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4A9487-D5B7-4CE1-99CD-1488FAF55674}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2435,7 +2425,7 @@
     <col min="9" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2461,7 +2451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2484,9 +2474,8 @@
         <v>204</v>
       </c>
       <c r="H2" s="25"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2509,9 +2498,8 @@
         <v>204</v>
       </c>
       <c r="H3" s="25"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -2534,9 +2522,8 @@
         <v>204</v>
       </c>
       <c r="H4" s="25"/>
-      <c r="J4"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -2559,9 +2546,8 @@
         <v>204</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2584,11 +2570,8 @@
         <v>204</v>
       </c>
       <c r="H6" s="14"/>
-      <c r="J6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -2611,10 +2594,9 @@
         <v>204</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="J7"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2635,9 +2617,8 @@
         <v>204</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2660,11 +2641,8 @@
         <v>204</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="J9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2687,11 +2665,8 @@
         <v>204</v>
       </c>
       <c r="H10" s="14"/>
-      <c r="J10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2714,11 +2689,8 @@
         <v>204</v>
       </c>
       <c r="H11" s="14"/>
-      <c r="J11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2741,9 +2713,8 @@
         <v>204</v>
       </c>
       <c r="H12" s="14"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2766,9 +2737,8 @@
         <v>204</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2791,11 +2761,8 @@
         <v>204</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="J14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -2818,11 +2785,8 @@
         <v>204</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="J15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2845,9 +2809,8 @@
         <v>204</v>
       </c>
       <c r="H16" s="14"/>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2870,9 +2833,8 @@
         <v>204</v>
       </c>
       <c r="H17" s="14"/>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2895,9 +2857,8 @@
         <v>204</v>
       </c>
       <c r="H18" s="14"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2920,9 +2881,8 @@
         <v>204</v>
       </c>
       <c r="H19" s="14"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -2945,9 +2905,8 @@
         <v>204</v>
       </c>
       <c r="H20" s="17"/>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2970,11 +2929,8 @@
         <v>204</v>
       </c>
       <c r="H21" s="14"/>
-      <c r="J21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2997,9 +2953,8 @@
         <v>204</v>
       </c>
       <c r="H22" s="14"/>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -3022,11 +2977,8 @@
         <v>204</v>
       </c>
       <c r="H23" s="14"/>
-      <c r="J23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -3049,11 +3001,8 @@
         <v>204</v>
       </c>
       <c r="H24" s="14"/>
-      <c r="J24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -3076,11 +3025,8 @@
         <v>204</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="J25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -3103,9 +3049,8 @@
         <v>204</v>
       </c>
       <c r="H26" s="14"/>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -3128,9 +3073,8 @@
         <v>204</v>
       </c>
       <c r="H27" s="14"/>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -3153,9 +3097,8 @@
         <v>204</v>
       </c>
       <c r="H28" s="14"/>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -3178,11 +3121,8 @@
         <v>204</v>
       </c>
       <c r="H29" s="14"/>
-      <c r="J29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -3205,9 +3145,8 @@
         <v>204</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -3230,11 +3169,8 @@
         <v>204</v>
       </c>
       <c r="H31" s="14"/>
-      <c r="J31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -3257,11 +3193,8 @@
         <v>204</v>
       </c>
       <c r="H32" s="14"/>
-      <c r="J32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -3284,9 +3217,8 @@
         <v>204</v>
       </c>
       <c r="H33" s="14"/>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -3302,14 +3234,15 @@
       <c r="E34" t="s">
         <v>185</v>
       </c>
-      <c r="F34"/>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
       <c r="G34" s="13" t="s">
         <v>204</v>
       </c>
       <c r="H34" s="14"/>
-      <c r="J34"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -3332,11 +3265,8 @@
         <v>204</v>
       </c>
       <c r="H35" s="14"/>
-      <c r="J35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -3359,9 +3289,8 @@
         <v>204</v>
       </c>
       <c r="H36" s="14"/>
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -3384,87 +3313,126 @@
         <v>204</v>
       </c>
       <c r="H37" s="14"/>
-      <c r="J37"/>
-    </row>
-    <row r="38" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" t="s">
         <v>208</v>
       </c>
-      <c r="B38" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E38" t="s">
-        <v>209</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="J38"/>
-    </row>
-    <row r="39" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="J39" s="27"/>
-    </row>
-    <row r="40" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="J40" s="27"/>
-    </row>
-    <row r="42" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="J44" s="33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:10" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:10" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:8" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:8" s="34" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="28"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="14"/>
+      <c r="F38" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:8" s="30" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
     </row>
     <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="28"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="14"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="28"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="14"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="28"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="14"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3479,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FC2B06-4BD0-4FEC-9578-53390E6CC2F6}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3499,30 +3467,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
@@ -4004,28 +3972,28 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="30" t="s">
+      <c r="F20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4042,7 +4010,7 @@
       <c r="D21" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="31" t="s">
         <v>173</v>
       </c>
       <c r="F21" t="s">
@@ -4053,7 +4021,7 @@
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J21"/>
     </row>
